--- a/PW6/Книга1.xlsx
+++ b/PW6/Книга1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KFA\unisersity\economic_cybernetics\PwLab6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KFA\unisersity\economic_cybernetics\PW6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,16 +221,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -378,11 +378,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1370329744"/>
-        <c:axId val="1370331920"/>
+        <c:axId val="2126107328"/>
+        <c:axId val="2126100256"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="1370329744"/>
+        <c:axId val="2126107328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -422,7 +422,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1370331920"/>
+        <c:crossAx val="2126100256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -430,7 +430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1370331920"/>
+        <c:axId val="2126100256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -478,7 +478,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1370329744"/>
+        <c:crossAx val="2126107328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -655,11 +655,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1373950800"/>
-        <c:axId val="1373961136"/>
+        <c:axId val="2126093728"/>
+        <c:axId val="2126101344"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="1373950800"/>
+        <c:axId val="2126093728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,7 +699,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1373961136"/>
+        <c:crossAx val="2126101344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -707,7 +707,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1373961136"/>
+        <c:axId val="2126101344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -755,7 +755,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1373950800"/>
+        <c:crossAx val="2126093728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -932,11 +932,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1373955696"/>
-        <c:axId val="1373951344"/>
+        <c:axId val="2126094816"/>
+        <c:axId val="2126102432"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="1373955696"/>
+        <c:axId val="2126094816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -976,7 +976,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1373951344"/>
+        <c:crossAx val="2126102432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -984,7 +984,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1373951344"/>
+        <c:axId val="2126102432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1032,7 +1032,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1373955696"/>
+        <c:crossAx val="2126094816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3111,7 +3111,7 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I7">
@@ -3120,7 +3120,7 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>16</v>
       </c>
@@ -3166,7 +3166,7 @@
       <c r="H9" s="4">
         <v>0</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J9">
@@ -3196,7 +3196,7 @@
       <c r="H10" s="4">
         <v>5.7700000000000001E-2</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J10">
@@ -3225,7 +3225,7 @@
       <c r="H11" s="4">
         <v>0.1731</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="J11">
@@ -3233,7 +3233,7 @@
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J12">
@@ -3241,7 +3241,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J13">
@@ -3249,7 +3249,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J14">
